--- a/test.xlsx
+++ b/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">Monday</t>
   </si>
@@ -40,52 +40,149 @@
     <t xml:space="preserve">Вс. Історія, Фіз-ра, Алгебра</t>
   </si>
   <si>
-    <t xml:space="preserve">Укр. мова, фізика, основи здр., геометрія</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Геометрія, Хімія, англ мова, Геометрія, біологія</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Укр. Мова, алгебра, фізика, укр. Літ, фізика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">биология</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
+    <t xml:space="preserve">Укр. мова, фізика,  Зарубіжна літ., геометрія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хімія, англ. Мова, геометрія, Біологія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. Мова, Алгебра, фізика, укр. Літ., фізика</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Мистецтво, Історія України, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Правознавство, Фіз-ра, Геометрія, Психологія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. мова, Алгебра,зар. літ., геометрія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хімія, англ. Мова, геометрія, труди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. Мова, Алгебра, фізика, укр. Літ., біологія</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Мистецтво, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Географія,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. мова, фізика, зар. Літ., геометрія</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Мистецтво, географія, Англ. Мова/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Інформатика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Інформатика/Англ мова</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. мова, алгебра, зар. Літ, основи здр.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Географія, Історія України, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Weeks</t>
@@ -98,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -122,6 +219,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -196,7 +300,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -204,16 +308,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="15.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>123</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -243,72 +344,76 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
